--- a/Collection_Map/src/Collection/Set/HashSet/HashSet.xlsx
+++ b/Collection_Map/src/Collection/Set/HashSet/HashSet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18395\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IDEA_Project\new\JavaSETest\Collection_Map\src\Collection\Set\HashSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="22104" windowHeight="9732"/>
+    <workbookView xWindow="1872" yWindow="0" windowWidth="22104" windowHeight="9732"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>John</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>有元素在表中，不直接new，使用equals比较，相同则不加入链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HashSet 横向看很好几个链表，而LinkedHashSet则不同</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,6 +172,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -178,9 +185,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1630,14 +1634,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K75" sqref="K75"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2"/>
@@ -1661,27 +1665,30 @@
       <c r="G6" s="2">
         <v>0</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.25">
       <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
       <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
       <c r="G9" s="2"/>
-      <c r="H9" s="4"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
       <c r="G10" s="2">
         <v>2</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="6" t="s">
         <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -1693,7 +1700,7 @@
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
       <c r="G11" s="2"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="6"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
@@ -1701,26 +1708,26 @@
       <c r="G12" s="2">
         <v>3</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
       <c r="G13" s="2"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
       <c r="G14" s="2">
         <v>4</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.25">
       <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="2"/>
@@ -1816,11 +1823,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="C24:G26"/>
-    <mergeCell ref="D34:Q34"/>
-    <mergeCell ref="C41:Q41"/>
     <mergeCell ref="D52:N52"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="G8:G9"/>
@@ -1833,6 +1835,11 @@
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="H14:H15"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="C24:G26"/>
+    <mergeCell ref="D34:Q34"/>
+    <mergeCell ref="C41:Q41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
